--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46558f51de43cf85/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46558f51de43cf85/Desktop/UABinf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C7193F7D-70C6-496F-8FFE-14954764B1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D9CE2CD-63C7-48C5-80FB-75663699F01A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C7193F7D-70C6-496F-8FFE-14954764B1B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5F7BA63-461D-4BF5-89AD-147DFE627613}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3478F07F-E1C2-4D80-99B0-046CEB651A17}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55BD7C3-847D-44E3-8EF2-47A9F57DE51B}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
